--- a/config_hlw/vip2_config.xlsx
+++ b/config_hlw/vip2_config.xlsx
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_hlw/vip2_config.xlsx
+++ b/config_hlw/vip2_config.xlsx
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_hlw/vip2_config.xlsx
+++ b/config_hlw/vip2_config.xlsx
@@ -984,9 +984,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"30万鱼币","太阳*6","狂暴卡*10"</t>
-  </si>
-  <si>
     <t>vip&lt;color=#e41a1a&gt;3&lt;/color&gt;-vip&lt;color=#e41a1a&gt;5&lt;/color&gt;福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1008,14 +1005,6 @@
   </si>
   <si>
     <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万鱼币","太阳*2","狂暴卡*5"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"66万鱼币","太阳*10","狂暴卡*15"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1185,10 +1174,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"100万鱼币","太阳*15","狂暴卡*20"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>vip</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1454,6 +1439,22 @@
   <si>
     <t>"988.8万","40","40",</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1万鱼币","太阳*2","狂暴卡*5"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万鱼币","太阳*6","狂暴卡*10"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6.6万鱼币","太阳*10","狂暴卡*15"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万鱼币","太阳*15","狂暴卡*20"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2000,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2090,7 +2091,7 @@
         <v>245</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="5"/>
@@ -2179,7 +2180,7 @@
         <v>245</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="21"/>
@@ -2247,7 +2248,7 @@
         <v>245</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="21"/>
@@ -2334,7 +2335,7 @@
         <v>248</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="21"/>
@@ -2420,7 +2421,7 @@
         <v>245</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="21"/>
@@ -2715,7 +2716,7 @@
         <v>50000</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="22"/>
@@ -2747,10 +2748,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="27"/>
@@ -2763,10 +2764,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F45" s="1">
         <v>15000</v>
@@ -2780,10 +2781,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F46" s="1">
         <v>15000</v>
@@ -2797,10 +2798,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F47" s="1">
         <v>15000</v>
@@ -2814,10 +2815,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F48" s="1">
         <v>15000</v>
@@ -2831,10 +2832,10 @@
         <v>11</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F49" s="1">
         <v>15000</v>
@@ -2848,10 +2849,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F50" s="1">
         <v>15000</v>
@@ -2865,10 +2866,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>307</v>
       </c>
       <c r="F51" s="1">
         <v>40000</v>
@@ -2882,10 +2883,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F52" s="1">
         <v>40000</v>
@@ -2899,10 +2900,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F53" s="1">
         <v>40000</v>
@@ -2916,10 +2917,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F54" s="1">
         <v>40000</v>
@@ -2933,10 +2934,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F55" s="1">
         <v>40000</v>
@@ -2950,10 +2951,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F56" s="1">
         <v>40000</v>
@@ -2994,7 +2995,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -3031,7 +3032,7 @@
         <v>241</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3052,7 +3053,7 @@
         <v>241</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3073,7 +3074,7 @@
         <v>241</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3094,7 +3095,7 @@
         <v>242</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3115,7 +3116,7 @@
         <v>242</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3136,7 +3137,7 @@
         <v>242</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3157,7 +3158,7 @@
         <v>243</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3178,7 +3179,7 @@
         <v>243</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3199,7 +3200,7 @@
         <v>244</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3220,7 +3221,7 @@
         <v>244</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3231,16 +3232,16 @@
         <v>10844</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3251,16 +3252,16 @@
         <v>10845</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3289,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3297,7 +3298,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3327,7 +3328,7 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F2" s="17">
         <v>200000</v>
@@ -3336,7 +3337,7 @@
         <v>185</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3354,7 +3355,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F3" s="17">
         <v>500000</v>
@@ -3363,7 +3364,7 @@
         <v>186</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3381,7 +3382,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F4" s="17">
         <v>1000000</v>
@@ -3390,7 +3391,7 @@
         <v>187</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -3408,7 +3409,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F5" s="17">
         <v>2000000</v>
@@ -3417,7 +3418,7 @@
         <v>188</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -3435,7 +3436,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F6" s="17">
         <v>5000000</v>
@@ -3444,7 +3445,7 @@
         <v>189</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -3462,7 +3463,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F7" s="17">
         <v>10000000</v>
@@ -3471,7 +3472,7 @@
         <v>190</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -3489,7 +3490,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F8" s="17">
         <v>20000000</v>
@@ -3498,7 +3499,7 @@
         <v>191</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F9" s="17">
         <v>50000000</v>
@@ -3525,7 +3526,7 @@
         <v>192</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -3543,7 +3544,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F10" s="17">
         <v>100000000</v>
@@ -3552,7 +3553,7 @@
         <v>193</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -3570,7 +3571,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F11" s="17">
         <v>200000000</v>
@@ -3579,7 +3580,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -3597,7 +3598,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F12" s="17">
         <v>300000000</v>
@@ -3606,7 +3607,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -3624,7 +3625,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F13" s="17">
         <v>500000000</v>
@@ -3633,7 +3634,7 @@
         <v>196</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -3667,13 +3668,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -3685,10 +3686,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3696,26 +3697,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>21314</v>
+        <v>21838</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3723,26 +3724,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>21016</v>
+        <v>21839</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3750,26 +3751,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>21017</v>
+        <v>21840</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>257</v>
+        <v>366</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3777,26 +3778,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1000152</v>
+        <v>21841</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4541,13 +4542,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4558,13 +4559,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4575,13 +4576,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4592,13 +4593,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4609,10 +4610,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -4626,13 +4627,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4643,13 +4644,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4660,13 +4661,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4677,13 +4678,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4697,10 +4698,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4714,10 +4715,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4731,10 +4732,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4748,10 +4749,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4765,10 +4766,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4782,10 +4783,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/config_hlw/vip2_config.xlsx
+++ b/config_hlw/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -25,14 +25,14 @@
     <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="339">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -862,9 +862,6 @@
     <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
   </si>
   <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
   </si>
   <si>
@@ -892,62 +889,10 @@
     <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
   </si>
   <si>
-    <t>每日最多可参加排名挑战赛4次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛5次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛6次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛7次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛9次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛10次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛11次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛12次</t>
-  </si>
-  <si>
     <t>key|权限</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛8次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_notcps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>可获得&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -966,22 +911,6 @@
   </si>
   <si>
     <t>"ty_icon_jb_198y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>vip&lt;color=#e41a1a&gt;3&lt;/color&gt;-vip&lt;color=#e41a1a&gt;5&lt;/color&gt;福利</t>
@@ -1182,10 +1111,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>每日可免费领取至尊礼包1个</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1254,29 +1179,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;1次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;3次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj_notcps</t>
-  </si>
-  <si>
     <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1285,15 +1187,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;70次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>福利券容量提升为&lt;color=#DA2020&gt;1200万&lt;/color&gt;福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;70次&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1968,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1995,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2037,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="13"/>
@@ -2058,28 +1952,25 @@
       <c r="F4" s="16"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
-      <c r="C5" s="25">
-        <v>10</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -2087,881 +1978,482 @@
       <c r="C6" s="1">
         <v>200</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="F6" s="15"/>
+      <c r="E6" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>200</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B7" s="19">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19">
+        <v>500</v>
+      </c>
+      <c r="D7" s="21"/>
       <c r="E7" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>11</v>
+      </c>
+      <c r="B8" s="19">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19">
+        <v>500</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>200</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25">
-        <v>2</v>
-      </c>
-      <c r="C9" s="25">
-        <v>200</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="19">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19">
+        <v>500</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="19">
-        <v>500</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>238</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="19">
-        <v>500</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="21"/>
+        <v>1000</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" s="19">
-        <v>500</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D12" s="21"/>
       <c r="E12" s="15" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F12" s="15"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B13" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="19">
-        <v>500</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25">
-        <v>3</v>
-      </c>
-      <c r="C14" s="25">
-        <v>500</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="B14" s="19">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B15" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="15"/>
+        <v>2000</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="16"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B16" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="19">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B17" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="19">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="25">
-        <v>4</v>
-      </c>
-      <c r="C18" s="25">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="B18" s="19">
+        <v>7</v>
+      </c>
+      <c r="C18" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B19" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" s="15"/>
+        <v>10000</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="16"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B20" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>248</v>
+        <v>20000</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B21" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" s="19">
-        <v>2000</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="22"/>
+        <v>20000</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B22" s="19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C22" s="19">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="21"/>
+        <v>30000</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B23" s="19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23" s="19">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="16"/>
+        <v>30000</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="20"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="25">
-        <v>5</v>
-      </c>
-      <c r="C24" s="25">
-        <v>2000</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+        <v>41</v>
+      </c>
+      <c r="B24" s="19">
+        <v>10</v>
+      </c>
+      <c r="C24" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B25" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C25" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="F25" s="15"/>
+        <v>50000</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="20"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="19">
-        <v>6</v>
-      </c>
-      <c r="C26" s="19">
-        <v>5000</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="B26" s="25">
+        <v>10</v>
+      </c>
+      <c r="C26" s="25">
+        <v>50000</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="19">
-        <v>6</v>
-      </c>
-      <c r="C27" s="19">
-        <v>5000</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="25">
-        <v>6</v>
-      </c>
-      <c r="C28" s="25">
-        <v>5000</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="19">
-        <v>7</v>
-      </c>
-      <c r="C29" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>11</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="19">
-        <v>7</v>
-      </c>
-      <c r="C30" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>11</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="19">
-        <v>7</v>
-      </c>
-      <c r="C31" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="25">
-        <v>7</v>
-      </c>
-      <c r="C32" s="25">
-        <v>10000</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>12</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="19">
-        <v>8</v>
-      </c>
-      <c r="C33" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>12</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="19">
-        <v>8</v>
-      </c>
-      <c r="C34" s="19">
-        <v>20000</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1">
+        <v>12</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="19">
-        <v>8</v>
-      </c>
-      <c r="C35" s="19">
-        <v>20000</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F35" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="25">
-        <v>8</v>
-      </c>
-      <c r="C36" s="25">
-        <v>20000</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="19">
-        <v>9</v>
-      </c>
-      <c r="C37" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="19">
-        <v>9</v>
-      </c>
-      <c r="C38" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="19">
-        <v>9</v>
-      </c>
-      <c r="C39" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="25">
-        <v>9</v>
-      </c>
-      <c r="C40" s="25">
-        <v>30000</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="19">
-        <v>10</v>
-      </c>
-      <c r="C41" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="19">
-        <v>10</v>
-      </c>
-      <c r="C42" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="19">
-        <v>10</v>
-      </c>
-      <c r="C43" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
-    </row>
-    <row r="44" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="25">
-        <v>10</v>
-      </c>
-      <c r="C44" s="25">
-        <v>50000</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>11</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F45" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>11</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F46" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>11</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="F47" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>11</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="F48" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>11</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F49" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>11</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="F50" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1">
         <v>12</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="D36" s="27"/>
+      <c r="E36" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F36" s="1">
         <v>40000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>12</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F52" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>12</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="F53" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <v>12</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F54" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1">
-        <v>12</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="F55" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <v>12</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F56" s="1">
-        <v>40000</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="E1:E48"/>
+  <autoFilter ref="E1:E29"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2995,7 +2487,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -3029,10 +2521,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3050,10 +2542,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3071,10 +2563,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3092,10 +2584,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3113,10 +2605,10 @@
         <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3134,10 +2626,10 @@
         <v>298</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3155,10 +2647,10 @@
         <v>398</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3176,10 +2668,10 @@
         <v>498</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3197,10 +2689,10 @@
         <v>598</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3218,10 +2710,10 @@
         <v>698</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3232,16 +2724,16 @@
         <v>10844</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3252,16 +2744,16 @@
         <v>10845</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3289,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3298,7 +2790,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3328,7 +2820,7 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="17" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="F2" s="17">
         <v>200000</v>
@@ -3337,7 +2829,7 @@
         <v>185</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3355,7 +2847,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="17" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="F3" s="17">
         <v>500000</v>
@@ -3364,7 +2856,7 @@
         <v>186</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3382,7 +2874,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="17" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="F4" s="17">
         <v>1000000</v>
@@ -3391,7 +2883,7 @@
         <v>187</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -3409,7 +2901,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="17" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="F5" s="17">
         <v>2000000</v>
@@ -3418,7 +2910,7 @@
         <v>188</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -3436,7 +2928,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="F6" s="17">
         <v>5000000</v>
@@ -3445,7 +2937,7 @@
         <v>189</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -3463,7 +2955,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="F7" s="17">
         <v>10000000</v>
@@ -3472,7 +2964,7 @@
         <v>190</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -3490,7 +2982,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="17" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="F8" s="17">
         <v>20000000</v>
@@ -3499,7 +2991,7 @@
         <v>191</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -3517,7 +3009,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="17" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="F9" s="17">
         <v>50000000</v>
@@ -3526,7 +3018,7 @@
         <v>192</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -3544,7 +3036,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="17" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="F10" s="17">
         <v>100000000</v>
@@ -3553,7 +3045,7 @@
         <v>193</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -3571,7 +3063,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="17" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="F11" s="17">
         <v>200000000</v>
@@ -3580,7 +3072,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -3598,7 +3090,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="17" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="F12" s="17">
         <v>300000000</v>
@@ -3607,7 +3099,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -3625,7 +3117,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="17" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="F13" s="17">
         <v>500000000</v>
@@ -3634,7 +3126,7 @@
         <v>196</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -3650,7 +3142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3668,13 +3160,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -3686,10 +3178,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3704,19 +3196,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3731,19 +3223,19 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3758,19 +3250,19 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3785,19 +3277,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4542,13 +4034,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4559,13 +4051,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4576,13 +4068,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4593,13 +4085,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4610,10 +4102,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -4627,13 +4119,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4644,13 +4136,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4661,13 +4153,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4678,13 +4170,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4698,10 +4190,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4715,10 +4207,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4732,10 +4224,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4749,10 +4241,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4766,10 +4258,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4783,10 +4275,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/config_hlw/vip2_config.xlsx
+++ b/config_hlw/vip2_config.xlsx
@@ -1864,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="7" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="19">
         <v>3</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="8" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="19">
         <v>3</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="9" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="19">
         <v>3</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="10" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" s="19">
         <v>4</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="11" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" s="19">
         <v>4</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="12" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B12" s="19">
         <v>5</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="13" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" s="19">
         <v>5</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14" s="19">
         <v>5</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" s="19">
         <v>5</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B16" s="19">
         <v>6</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" s="19">
         <v>6</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B18" s="19">
         <v>7</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B19" s="19">
         <v>7</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B20" s="19">
         <v>8</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B21" s="19">
         <v>8</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B22" s="19">
         <v>9</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B23" s="19">
         <v>9</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B24" s="19">
         <v>10</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B25" s="19">
         <v>10</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="26" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B26" s="25">
         <v>10</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>11</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>11</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>11</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>11</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>11</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>12</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>12</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>12</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>12</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>12</v>

--- a/config_hlw/vip2_config.xlsx
+++ b/config_hlw/vip2_config.xlsx
@@ -25,14 +25,14 @@
     <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="336">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1107,18 +1107,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>每日最多可参加排名挑战赛30次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>每日可免费领取至尊礼包1个</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>每领满30次至尊礼包额外奖励1000万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>享受vip10所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1127,20 +1119,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>每领满30次至尊礼包额外奖励200元话费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>享受vip11所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛20次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛15次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>line</t>
@@ -1349,6 +1329,14 @@
   <si>
     <t>"10万鱼币","太阳*15","狂暴卡*20"</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每领满30次至尊礼包额外奖励100万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每领满30次至尊礼包额外奖励200元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1502,7 +1490,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,12 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1862,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1895,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2264,7 +2246,7 @@
         <v>50000</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="22"/>
@@ -2285,22 +2267,20 @@
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="25">
-        <v>10</v>
-      </c>
-      <c r="C26" s="25">
-        <v>50000</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="B26" s="1">
+        <v>11</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="1">
+        <v>15000</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -2309,9 +2289,9 @@
       <c r="B27" s="1">
         <v>11</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="12" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="F27" s="1">
         <v>15000</v>
@@ -2324,9 +2304,9 @@
       <c r="B28" s="1">
         <v>11</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="12" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F28" s="1">
         <v>15000</v>
@@ -2339,9 +2319,9 @@
       <c r="B29" s="1">
         <v>11</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="12" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="F29" s="1">
         <v>15000</v>
@@ -2352,14 +2332,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
-      </c>
-      <c r="D30" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="D30" s="25"/>
       <c r="E30" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F30" s="1">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2367,14 +2347,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>11</v>
-      </c>
-      <c r="D31" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="D31" s="25"/>
       <c r="E31" s="12" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="F31" s="1">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2384,9 +2364,9 @@
       <c r="B32" s="1">
         <v>12</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="12" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F32" s="1">
         <v>40000</v>
@@ -2399,61 +2379,16 @@
       <c r="B33" s="1">
         <v>12</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F33" s="1">
         <v>40000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>12</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="F34" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>12</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="F35" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>12</v>
-      </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="F36" s="1">
-        <v>40000</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="E1:E29"/>
+  <autoFilter ref="E1:E28"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2524,7 +2459,7 @@
         <v>225</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2545,7 +2480,7 @@
         <v>225</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2566,7 +2501,7 @@
         <v>225</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2587,7 +2522,7 @@
         <v>226</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2608,7 +2543,7 @@
         <v>226</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2629,7 +2564,7 @@
         <v>226</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2650,7 +2585,7 @@
         <v>227</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2671,7 +2606,7 @@
         <v>227</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2692,7 +2627,7 @@
         <v>228</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2713,7 +2648,7 @@
         <v>228</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2724,16 +2659,16 @@
         <v>10844</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2744,16 +2679,16 @@
         <v>10845</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2716,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -2820,7 +2755,7 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F2" s="17">
         <v>200000</v>
@@ -2829,7 +2764,7 @@
         <v>185</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2847,7 +2782,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="17" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F3" s="17">
         <v>500000</v>
@@ -2856,7 +2791,7 @@
         <v>186</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -2874,7 +2809,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F4" s="17">
         <v>1000000</v>
@@ -2883,7 +2818,7 @@
         <v>187</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -2901,7 +2836,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F5" s="17">
         <v>2000000</v>
@@ -2910,7 +2845,7 @@
         <v>188</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -2928,7 +2863,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F6" s="17">
         <v>5000000</v>
@@ -2937,7 +2872,7 @@
         <v>189</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -2955,7 +2890,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F7" s="17">
         <v>10000000</v>
@@ -2964,7 +2899,7 @@
         <v>190</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -2982,7 +2917,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F8" s="17">
         <v>20000000</v>
@@ -2991,7 +2926,7 @@
         <v>191</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -3009,7 +2944,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="17" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F9" s="17">
         <v>50000000</v>
@@ -3018,7 +2953,7 @@
         <v>192</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -3036,7 +2971,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="17" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F10" s="17">
         <v>100000000</v>
@@ -3045,7 +2980,7 @@
         <v>193</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -3063,7 +2998,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F11" s="17">
         <v>200000000</v>
@@ -3072,7 +3007,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -3090,7 +3025,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="17" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F12" s="17">
         <v>300000000</v>
@@ -3099,7 +3034,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -3117,7 +3052,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F13" s="17">
         <v>500000000</v>
@@ -3126,7 +3061,7 @@
         <v>196</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -3199,13 +3134,13 @@
         <v>232</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>230</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>238</v>
@@ -3226,13 +3161,13 @@
         <v>233</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>229</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>241</v>
@@ -3253,13 +3188,13 @@
         <v>233</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>240</v>
@@ -3280,13 +3215,13 @@
         <v>234</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>231</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>239</v>
@@ -4241,7 +4176,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>253</v>

--- a/config_hlw/vip2_config.xlsx
+++ b/config_hlw/vip2_config.xlsx
@@ -25,14 +25,14 @@
     <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$54</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="358">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -826,9 +826,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>享受vip专享福利</t>
-  </si>
-  <si>
     <t>享受vip1所有特权并提高部分特权奖励</t>
   </si>
   <si>
@@ -838,9 +835,6 @@
     <t>享受vip3所有特权并提高部分特权奖励</t>
   </si>
   <si>
-    <t>畅玩所有游戏</t>
-  </si>
-  <si>
     <t>享受vip4所有特权并提高部分特权奖励</t>
   </si>
   <si>
@@ -859,45 +853,14 @@
     <t>享受vip9所有特权并提高部分特权奖励</t>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>key|权限</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可获得&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1159,10 +1122,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>福利券容量提升为&lt;color=#DA2020&gt;800万&lt;/color&gt;福利券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1337,6 +1296,119 @@
   <si>
     <t>每领满30次至尊礼包额外奖励200元话费</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受vip专享福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;圣光 V&lt;/color&gt;炮台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;圣光 IV&lt;/color&gt;炮台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;圣光 II&lt;/color&gt;炮台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日首次转运金由3000鲸币提高到&lt;color=#DA2020&gt;4000鲸币&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;200福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;圣光 III&lt;/color&gt;炮台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周可领1个&lt;color=#DA2020&gt;3元&lt;/color&gt;的礼包</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;5000鲸币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;400福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每周可领礼包升级为&lt;color=#DA2020&gt;8元&lt;/color&gt;的礼包</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;6000鲸币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;1000福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;7000鲸币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;1500福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;8000鲸币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;3000福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每周可领礼包升级为&lt;color=#DA2020&gt;16元&lt;/color&gt;的礼包</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;9000鲸币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;5000福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;1万鲸币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;10000福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每周可领礼包升级为&lt;color=#DA2020&gt;25元&lt;/color&gt;的礼包</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;1.2万鲸币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;20000福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;1.4万鲸币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;30000福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;2万鲸币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;50000福卡&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1562,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,6 +1638,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1844,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1871,13 +1946,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -1897,12 +1972,12 @@
         <v>10</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1912,11 +1987,11 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="13"/>
+      <c r="E3" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1929,26 +2004,26 @@
         <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1958,104 +2033,107 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>200</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>202</v>
+        <v>100</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19">
-        <v>500</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
       <c r="E7" s="15" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
-        <v>3</v>
-      </c>
-      <c r="C8" s="19">
-        <v>500</v>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
-        <v>3</v>
-      </c>
-      <c r="C9" s="19">
-        <v>500</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
-        <v>4</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1000</v>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
-        <v>4</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1000</v>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F11" s="16"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="19">
-        <v>2000</v>
+        <v>198</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="15" t="s">
-        <v>224</v>
+        <v>335</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="21"/>
@@ -2065,330 +2143,738 @@
         <v>12</v>
       </c>
       <c r="B13" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="19">
-        <v>2000</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="15" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="19">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="19">
-        <v>2000</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="19">
-        <v>5000</v>
+        <v>198</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" s="19">
-        <v>5000</v>
+        <v>198</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" s="19">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" s="19">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" s="19">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21" s="19">
-        <v>20000</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C22" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="20"/>
+        <v>2000</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="15"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="F25" s="20"/>
+        <v>2000</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="15"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>11</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="F26" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="19">
+        <v>5</v>
+      </c>
+      <c r="C26" s="19">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>11</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="F27" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="19">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>11</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F28" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="19">
+        <v>5</v>
+      </c>
+      <c r="C28" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>11</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="19">
+        <v>6</v>
+      </c>
+      <c r="C29" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>12</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F30" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="19">
+        <v>6</v>
+      </c>
+      <c r="C30" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>12</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="F31" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="19">
+        <v>6</v>
+      </c>
+      <c r="C31" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>12</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F32" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="19">
+        <v>6</v>
+      </c>
+      <c r="C32" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="19">
+        <v>6</v>
+      </c>
+      <c r="C33" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19">
+        <v>6</v>
+      </c>
+      <c r="C34" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19">
+        <v>7</v>
+      </c>
+      <c r="C35" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19">
+        <v>7</v>
+      </c>
+      <c r="C36" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19">
+        <v>7</v>
+      </c>
+      <c r="C37" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19">
+        <v>7</v>
+      </c>
+      <c r="C38" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19">
+        <v>8</v>
+      </c>
+      <c r="C39" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19">
+        <v>8</v>
+      </c>
+      <c r="C40" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19">
+        <v>8</v>
+      </c>
+      <c r="C41" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="19">
+        <v>8</v>
+      </c>
+      <c r="C42" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19">
+        <v>8</v>
+      </c>
+      <c r="C43" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="19">
+        <v>9</v>
+      </c>
+      <c r="C44" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="19">
+        <v>9</v>
+      </c>
+      <c r="C45" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="19">
+        <v>9</v>
+      </c>
+      <c r="C46" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="19">
+        <v>9</v>
+      </c>
+      <c r="C47" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="19">
+        <v>10</v>
+      </c>
+      <c r="C48" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="19">
+        <v>10</v>
+      </c>
+      <c r="C49" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="19">
+        <v>10</v>
+      </c>
+      <c r="C50" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="19">
+        <v>10</v>
+      </c>
+      <c r="C51" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>11</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>11</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F53" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>11</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F54" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>11</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
         <v>12</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="D56" s="25"/>
+      <c r="E56" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F56" s="1">
         <v>40000</v>
       </c>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>12</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F57" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>12</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>12</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59" s="1">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E28"/>
+  <autoFilter ref="E1:E54"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2422,7 +2908,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -2456,10 +2942,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2477,10 +2963,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2498,10 +2984,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2519,10 +3005,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2540,10 +3026,10 @@
         <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2561,10 +3047,10 @@
         <v>298</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2582,10 +3068,10 @@
         <v>398</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2603,10 +3089,10 @@
         <v>498</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2624,10 +3110,10 @@
         <v>598</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2645,10 +3131,10 @@
         <v>698</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2659,16 +3145,16 @@
         <v>10844</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2679,16 +3165,16 @@
         <v>10845</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2716,7 +3202,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -2725,7 +3211,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -2755,7 +3241,7 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="17" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F2" s="17">
         <v>200000</v>
@@ -2764,7 +3250,7 @@
         <v>185</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2782,7 +3268,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="17" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F3" s="17">
         <v>500000</v>
@@ -2791,7 +3277,7 @@
         <v>186</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -2809,7 +3295,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="17" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="F4" s="17">
         <v>1000000</v>
@@ -2818,7 +3304,7 @@
         <v>187</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -2836,7 +3322,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="17" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F5" s="17">
         <v>2000000</v>
@@ -2845,7 +3331,7 @@
         <v>188</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -2863,7 +3349,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F6" s="17">
         <v>5000000</v>
@@ -2872,7 +3358,7 @@
         <v>189</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -2890,7 +3376,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F7" s="17">
         <v>10000000</v>
@@ -2899,7 +3385,7 @@
         <v>190</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -2917,7 +3403,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="17" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F8" s="17">
         <v>20000000</v>
@@ -2926,7 +3412,7 @@
         <v>191</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -2944,7 +3430,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="17" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F9" s="17">
         <v>50000000</v>
@@ -2953,7 +3439,7 @@
         <v>192</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -2971,7 +3457,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="17" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F10" s="17">
         <v>100000000</v>
@@ -2980,7 +3466,7 @@
         <v>193</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -2998,7 +3484,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="17" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F11" s="17">
         <v>200000000</v>
@@ -3007,7 +3493,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -3025,7 +3511,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="17" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F12" s="17">
         <v>300000000</v>
@@ -3034,7 +3520,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -3052,7 +3538,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="17" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F13" s="17">
         <v>500000000</v>
@@ -3061,7 +3547,7 @@
         <v>196</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -3095,13 +3581,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -3113,10 +3599,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3131,19 +3617,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3158,19 +3644,19 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3185,19 +3671,19 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3212,19 +3698,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3969,13 +4455,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3986,13 +4472,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4003,13 +4489,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4020,13 +4506,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4037,10 +4523,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -4054,13 +4540,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4071,13 +4557,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4088,13 +4574,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4105,13 +4591,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4125,10 +4611,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4142,10 +4628,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4159,10 +4645,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4176,10 +4662,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4193,10 +4679,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4210,10 +4696,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/config_hlw/vip2_config.xlsx
+++ b/config_hlw/vip2_config.xlsx
@@ -853,9 +853,6 @@
     <t>享受vip9所有特权并提高部分特权奖励</t>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>key|权限</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1122,14 +1119,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;800万&lt;/color&gt;福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;1200万&lt;/color&gt;福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>身上拥有20万金币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1318,14 +1307,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>每日首次转运金由3000鲸币提高到&lt;color=#DA2020&gt;4000鲸币&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;200福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>可获得&lt;color=#DA2020&gt;圣光 III&lt;/color&gt;炮台</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1336,36 +1317,24 @@
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
   </si>
   <si>
-    <t>每日首次转运金提高到&lt;color=#DA2020&gt;5000鲸币&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>福卡容量提升为&lt;color=#DA2020&gt;400福卡&lt;/color&gt;</t>
   </si>
   <si>
     <t>每周可领礼包升级为&lt;color=#DA2020&gt;8元&lt;/color&gt;的礼包</t>
   </si>
   <si>
-    <t>每日首次转运金提高到&lt;color=#DA2020&gt;6000鲸币&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
   </si>
   <si>
     <t>福卡容量提升为&lt;color=#DA2020&gt;1000福卡&lt;/color&gt;</t>
   </si>
   <si>
-    <t>每日首次转运金提高到&lt;color=#DA2020&gt;7000鲸币&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
   </si>
   <si>
     <t>福卡容量提升为&lt;color=#DA2020&gt;1500福卡&lt;/color&gt;</t>
   </si>
   <si>
-    <t>每日首次转运金提高到&lt;color=#DA2020&gt;8000鲸币&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
   </si>
   <si>
@@ -1375,40 +1344,67 @@
     <t>每周可领礼包升级为&lt;color=#DA2020&gt;16元&lt;/color&gt;的礼包</t>
   </si>
   <si>
-    <t>每日首次转运金提高到&lt;color=#DA2020&gt;9000鲸币&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
   </si>
   <si>
     <t>福卡容量提升为&lt;color=#DA2020&gt;5000福卡&lt;/color&gt;</t>
   </si>
   <si>
-    <t>每日首次转运金提高到&lt;color=#DA2020&gt;1万鲸币&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>福卡容量提升为&lt;color=#DA2020&gt;10000福卡&lt;/color&gt;</t>
   </si>
   <si>
     <t>每周可领礼包升级为&lt;color=#DA2020&gt;25元&lt;/color&gt;的礼包</t>
   </si>
   <si>
-    <t>每日首次转运金提高到&lt;color=#DA2020&gt;1.2万鲸币&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>福卡容量提升为&lt;color=#DA2020&gt;20000福卡&lt;/color&gt;</t>
   </si>
   <si>
-    <t>每日首次转运金提高到&lt;color=#DA2020&gt;1.4万鲸币&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>福卡容量提升为&lt;color=#DA2020&gt;30000福卡&lt;/color&gt;</t>
   </si>
   <si>
-    <t>每日首次转运金提高到&lt;color=#DA2020&gt;2万鲸币&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>福卡容量提升为&lt;color=#DA2020&gt;50000福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金由3000金币提高到&lt;color=#DA2020&gt;4000金币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;5000金币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;6000金币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;7000金币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;8000金币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;9000金币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;1万金币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;1.2万金币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;1.4万金币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日首次转运金提高到&lt;color=#DA2020&gt;2万金币&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;200福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;30万福卡&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;800万&lt;/color&gt;福卡</t>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#DA2020&gt;1200万&lt;/color&gt;福卡</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1918,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1946,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -1972,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="5"/>
@@ -1988,7 +1984,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="5"/>
@@ -2004,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="13"/>
@@ -2020,7 +2016,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="5"/>
@@ -2036,7 +2032,7 @@
         <v>100</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="5"/>
@@ -2052,7 +2048,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
@@ -2068,7 +2064,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
@@ -2084,7 +2080,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
@@ -2100,7 +2096,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
@@ -2133,7 +2129,7 @@
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="21"/>
@@ -2150,7 +2146,7 @@
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="21"/>
@@ -2166,7 +2162,7 @@
         <v>198</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F14" s="15"/>
     </row>
@@ -2181,7 +2177,7 @@
         <v>198</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F15" s="15"/>
     </row>
@@ -2196,7 +2192,7 @@
         <v>198</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F16" s="15"/>
     </row>
@@ -2226,7 +2222,7 @@
         <v>1000</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F18" s="15"/>
     </row>
@@ -2241,7 +2237,7 @@
         <v>1000</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F19" s="15"/>
     </row>
@@ -2256,7 +2252,7 @@
         <v>1000</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F20" s="15"/>
     </row>
@@ -2271,7 +2267,7 @@
         <v>1000</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F21" s="15"/>
     </row>
@@ -2302,7 +2298,7 @@
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="21"/>
@@ -2319,7 +2315,7 @@
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="15" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="21"/>
@@ -2336,7 +2332,7 @@
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="15" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="21"/>
@@ -2353,7 +2349,7 @@
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="15" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="21"/>
@@ -2369,7 +2365,7 @@
         <v>2000</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>210</v>
+        <v>355</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="22"/>
@@ -2401,7 +2397,7 @@
         <v>5000</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F29" s="15"/>
     </row>
@@ -2416,7 +2412,7 @@
         <v>5000</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F30" s="15"/>
     </row>
@@ -2431,7 +2427,7 @@
         <v>5000</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F31" s="15"/>
     </row>
@@ -2446,7 +2442,7 @@
         <v>5000</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F32" s="15"/>
     </row>
@@ -2461,7 +2457,7 @@
         <v>5000</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F33" s="15"/>
     </row>
@@ -2492,7 +2488,7 @@
         <v>10000</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="22"/>
@@ -2508,7 +2504,7 @@
         <v>10000</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="22"/>
@@ -2524,7 +2520,7 @@
         <v>10000</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="22"/>
@@ -2556,7 +2552,7 @@
         <v>20000</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="22"/>
@@ -2572,7 +2568,7 @@
         <v>20000</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="22"/>
@@ -2588,7 +2584,7 @@
         <v>20000</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="22"/>
@@ -2604,7 +2600,7 @@
         <v>20000</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="22"/>
@@ -2636,7 +2632,7 @@
         <v>30000</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="22"/>
@@ -2652,7 +2648,7 @@
         <v>30000</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="22"/>
@@ -2668,7 +2664,7 @@
         <v>30000</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="22"/>
@@ -2700,7 +2696,7 @@
         <v>50000</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="22"/>
@@ -2716,7 +2712,7 @@
         <v>50000</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="22"/>
@@ -2732,7 +2728,7 @@
         <v>50000</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="22"/>
@@ -2762,7 +2758,7 @@
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F52" s="1">
         <v>15000</v>
@@ -2777,7 +2773,7 @@
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F53" s="1">
         <v>15000</v>
@@ -2792,7 +2788,7 @@
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="12" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="F54" s="1">
         <v>15000</v>
@@ -2807,7 +2803,7 @@
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F55" s="1">
         <v>15000</v>
@@ -2822,7 +2818,7 @@
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F56" s="1">
         <v>40000</v>
@@ -2837,7 +2833,7 @@
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F57" s="1">
         <v>40000</v>
@@ -2852,7 +2848,7 @@
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="12" t="s">
-        <v>280</v>
+        <v>357</v>
       </c>
       <c r="F58" s="1">
         <v>40000</v>
@@ -2867,7 +2863,7 @@
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F59" s="1">
         <v>40000</v>
@@ -2908,7 +2904,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -2942,10 +2938,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2963,10 +2959,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2984,10 +2980,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3005,10 +3001,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3026,10 +3022,10 @@
         <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3047,10 +3043,10 @@
         <v>298</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3068,10 +3064,10 @@
         <v>398</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3089,10 +3085,10 @@
         <v>498</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3110,10 +3106,10 @@
         <v>598</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3131,10 +3127,10 @@
         <v>698</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3145,16 +3141,16 @@
         <v>10844</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3165,16 +3161,16 @@
         <v>10845</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +3198,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3211,7 +3207,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3241,7 +3237,7 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F2" s="17">
         <v>200000</v>
@@ -3250,7 +3246,7 @@
         <v>185</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3268,7 +3264,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F3" s="17">
         <v>500000</v>
@@ -3277,7 +3273,7 @@
         <v>186</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3295,7 +3291,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F4" s="17">
         <v>1000000</v>
@@ -3304,7 +3300,7 @@
         <v>187</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -3322,7 +3318,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F5" s="17">
         <v>2000000</v>
@@ -3331,7 +3327,7 @@
         <v>188</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -3349,7 +3345,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F6" s="17">
         <v>5000000</v>
@@ -3358,7 +3354,7 @@
         <v>189</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -3376,7 +3372,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F7" s="17">
         <v>10000000</v>
@@ -3385,7 +3381,7 @@
         <v>190</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -3403,7 +3399,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F8" s="17">
         <v>20000000</v>
@@ -3412,7 +3408,7 @@
         <v>191</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -3430,7 +3426,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F9" s="17">
         <v>50000000</v>
@@ -3439,7 +3435,7 @@
         <v>192</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -3457,7 +3453,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F10" s="17">
         <v>100000000</v>
@@ -3466,7 +3462,7 @@
         <v>193</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -3484,7 +3480,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F11" s="17">
         <v>200000000</v>
@@ -3493,7 +3489,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -3511,7 +3507,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F12" s="17">
         <v>300000000</v>
@@ -3520,7 +3516,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -3538,7 +3534,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F13" s="17">
         <v>500000000</v>
@@ -3547,7 +3543,7 @@
         <v>196</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -3581,13 +3577,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -3599,10 +3595,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3617,19 +3613,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3644,19 +3640,19 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3671,19 +3667,19 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3698,19 +3694,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4455,13 +4451,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4472,13 +4468,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4489,13 +4485,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4506,13 +4502,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4523,10 +4519,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -4540,13 +4536,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4557,13 +4553,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4574,13 +4570,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4591,13 +4587,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4611,10 +4607,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4628,10 +4624,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4645,10 +4641,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4662,10 +4658,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4679,10 +4675,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4696,10 +4692,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E16">
         <v>1</v>
